--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>379700.3606059561</v>
+        <v>375562.8774710419</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33970018.24655609</v>
+        <v>33970018.24655608</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6660456.462021565</v>
+        <v>6660456.462021566</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.74022553704952</v>
+        <v>23.32779925082406</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082486</v>
+        <v>20.54712558012582</v>
       </c>
       <c r="E2" t="n">
-        <v>23.32779925082486</v>
+        <v>23.32779925082406</v>
       </c>
       <c r="F2" t="n">
-        <v>23.32779925082486</v>
+        <v>23.32779925082406</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>23.32779925082406</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>17.39088632218082</v>
       </c>
       <c r="H3" t="n">
-        <v>17.39088632218141</v>
+        <v>23.32779925082406</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.32779925082486</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>23.32779925082486</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12.76456957586168</v>
       </c>
       <c r="G4" t="n">
-        <v>9.13801751907449</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>23.32779925082486</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.70124719403657</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8069000430769696</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343154</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752736</v>
+        <v>31.25784031357141</v>
       </c>
       <c r="H6" t="n">
         <v>40.6378963153706</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>31.2578403135714</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>38.83972215570805</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.83972215570805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>31.25784031357141</v>
+      </c>
+      <c r="G9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="G9" t="n">
-        <v>30.58073358141467</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16.07267624245948</v>
+      </c>
+      <c r="I10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.07267624245948</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>255.9508505586065</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>327.4098471961895</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.45461388085713</v>
+        <v>160.9700673778978</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>413.327592453252</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>125.4620979715947</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>136.8017133919764</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>79.34771998574253</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>316.6474475486455</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,22 +2004,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>82.1704359115499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>141.6814466380194</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>222.0215175726363</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -2134,16 +2134,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.55349484584004</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2259,7 +2259,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>106.4438755113824</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -2377,10 +2377,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>105.5188043066317</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>130.0550729486532</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2493,7 +2493,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>237.4644955258596</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>73.7789469995592</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>114.1565208150336</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>176.9631776198099</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>109.4093242005969</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>156.9132088647755</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2794,16 +2794,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>289.0012590013216</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>197.6313432876043</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>62.49116477960748</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.426178331047838</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3034,13 +3034,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>200.6809321206154</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T32" t="n">
-        <v>203.4920879925509</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>63.11630318224274</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>236.4600872804777</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>51.96464881678497</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>149.6157531058532</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>30.83833652624708</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,7 +3441,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>197.0902637961369</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>275.1106372348598</v>
       </c>
       <c r="H38" t="n">
-        <v>39.66469197882008</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>106.7523659722535</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>251.2793657364855</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>109.5540470185018</v>
+        <v>315.1723433222108</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>164.7709728648519</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>61.49927723088118</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>175.2848184896815</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>361.4649050157289</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258659</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.171146149567</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4197,7 +4197,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.4961464547368</v>
+        <v>93.31119700329624</v>
       </c>
       <c r="C2" t="n">
-        <v>72.55652470014132</v>
+        <v>69.74776341660527</v>
       </c>
       <c r="D2" t="n">
-        <v>48.99309111344955</v>
+        <v>48.99309111344787</v>
       </c>
       <c r="E2" t="n">
-        <v>25.42965752675777</v>
+        <v>25.4296575267569</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940065989</v>
+        <v>1.866223940065925</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940065989</v>
+        <v>1.866223940065925</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940065989</v>
+        <v>1.866223940065925</v>
       </c>
       <c r="I2" t="n">
-        <v>4.300780394746056</v>
+        <v>4.300780394745879</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922399</v>
+        <v>10.5597898192236</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570109</v>
+        <v>19.94042246570038</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593572</v>
+        <v>31.57792675593462</v>
       </c>
       <c r="M2" t="n">
-        <v>44.52689258584026</v>
+        <v>44.52689258583872</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622059964</v>
+        <v>57.68538622059765</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895331</v>
+        <v>70.11057862895089</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249704</v>
+        <v>80.71519288249428</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691143</v>
+        <v>88.67881654690841</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700329944</v>
+        <v>93.31119700329624</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700329944</v>
+        <v>93.31119700329624</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700329944</v>
+        <v>93.31119700329624</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700329944</v>
+        <v>93.31119700329624</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700329944</v>
+        <v>93.31119700329624</v>
       </c>
       <c r="W2" t="n">
-        <v>92.4961464547368</v>
+        <v>93.31119700329624</v>
       </c>
       <c r="X2" t="n">
-        <v>92.4961464547368</v>
+        <v>93.31119700329624</v>
       </c>
       <c r="Y2" t="n">
-        <v>92.4961464547368</v>
+        <v>93.31119700329624</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="C3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="E3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="F3" t="n">
-        <v>19.43277578065327</v>
+        <v>42.99620936734358</v>
       </c>
       <c r="G3" t="n">
-        <v>19.43277578065327</v>
+        <v>25.4296575267569</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940065989</v>
+        <v>1.866223940065925</v>
       </c>
       <c r="I3" t="n">
-        <v>3.22472222740123</v>
+        <v>3.22472222740112</v>
       </c>
       <c r="J3" t="n">
-        <v>6.952545362113131</v>
+        <v>6.952545362112895</v>
       </c>
       <c r="K3" t="n">
-        <v>13.32398885826874</v>
+        <v>13.32398885826829</v>
       </c>
       <c r="L3" t="n">
-        <v>21.89118092381411</v>
+        <v>21.89118092381336</v>
       </c>
       <c r="M3" t="n">
-        <v>31.88868997596148</v>
+        <v>31.8886899759604</v>
       </c>
       <c r="N3" t="n">
-        <v>42.15080334420255</v>
+        <v>42.15080334420112</v>
       </c>
       <c r="O3" t="n">
-        <v>51.53863220956241</v>
+        <v>51.53863220956065</v>
       </c>
       <c r="P3" t="n">
-        <v>59.07319251962632</v>
+        <v>59.07319251962431</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.10984655206005</v>
+        <v>64.10984655205787</v>
       </c>
       <c r="R3" t="n">
-        <v>66.55964295403683</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="S3" t="n">
-        <v>42.99620936734505</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="T3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="U3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="V3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="W3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="X3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.43277578065327</v>
+        <v>66.55964295403456</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="C4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="D4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="E4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="F4" t="n">
-        <v>34.65997825309564</v>
+        <v>1.866223940065925</v>
       </c>
       <c r="G4" t="n">
-        <v>25.42965752675777</v>
+        <v>1.866223940065925</v>
       </c>
       <c r="H4" t="n">
-        <v>1.866223940065989</v>
+        <v>1.866223940065925</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940065989</v>
+        <v>1.866223940065925</v>
       </c>
       <c r="J4" t="n">
-        <v>4.204940375576594</v>
+        <v>4.204940375576451</v>
       </c>
       <c r="K4" t="n">
-        <v>8.048169904421334</v>
+        <v>8.048169904421062</v>
       </c>
       <c r="L4" t="n">
-        <v>12.96618052372704</v>
+        <v>12.9661805237266</v>
       </c>
       <c r="M4" t="n">
-        <v>18.15153316581388</v>
+        <v>18.15153316581327</v>
       </c>
       <c r="N4" t="n">
-        <v>23.21358971190492</v>
+        <v>23.21358971190414</v>
       </c>
       <c r="O4" t="n">
-        <v>27.889218249814</v>
+        <v>27.88921824981306</v>
       </c>
       <c r="P4" t="n">
-        <v>31.89002620378508</v>
+        <v>31.890026203784</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.65997825309564</v>
+        <v>34.65997825309447</v>
       </c>
       <c r="R4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="S4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="T4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="U4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="V4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="W4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="X4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
       <c r="Y4" t="n">
-        <v>34.65997825309564</v>
+        <v>14.75972856214844</v>
       </c>
     </row>
     <row r="5">
@@ -4552,61 +4552,61 @@
         <v>56.86656659549116</v>
       </c>
       <c r="E5" t="n">
-        <v>27.1322257941904</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952756</v>
+        <v>7.922179662952684</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030272</v>
+        <v>18.98581709030266</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176025</v>
+        <v>35.56734164176019</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654184</v>
+        <v>56.13818908654176</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682889</v>
+        <v>79.02722044682882</v>
       </c>
       <c r="N5" t="n">
-        <v>102.286620264271</v>
+        <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
-        <v>124.2498119529546</v>
+        <v>124.2498119529545</v>
       </c>
       <c r="P5" t="n">
-        <v>142.9948879228476</v>
+        <v>142.9948879228475</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.0716593183938</v>
+        <v>157.0716593183937</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901094</v>
+        <v>165.2600121901093</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.08590667097185</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="C6" t="n">
-        <v>86.08590667097185</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="D6" t="n">
-        <v>86.08590667097185</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="E6" t="n">
-        <v>86.08590667097185</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="F6" t="n">
-        <v>86.08590667097185</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="G6" t="n">
         <v>44.35358036033816</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I6" t="n">
-        <v>5.706527910441172</v>
+        <v>5.70652791044117</v>
       </c>
       <c r="J6" t="n">
         <v>12.29595456866669</v>
@@ -4652,7 +4652,7 @@
         <v>23.55833427601031</v>
       </c>
       <c r="L6" t="n">
-        <v>38.70199365651514</v>
+        <v>38.70199365651513</v>
       </c>
       <c r="M6" t="n">
         <v>56.37392987329654</v>
@@ -4676,22 +4676,22 @@
         <v>117.6594827452864</v>
       </c>
       <c r="T6" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="U6" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="V6" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="W6" t="n">
-        <v>117.6594827452864</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="X6" t="n">
-        <v>86.08590667097185</v>
+        <v>75.92715643465272</v>
       </c>
       <c r="Y6" t="n">
-        <v>86.08590667097185</v>
+        <v>75.92715643465272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="C7" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="D7" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
       <c r="E7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="F7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802187</v>
       </c>
       <c r="J7" t="n">
-        <v>7.439194768028657</v>
+        <v>7.439194768028655</v>
       </c>
       <c r="K7" t="n">
         <v>14.23261768427069</v>
@@ -4770,7 +4770,7 @@
         <v>42.53724282532548</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.305200243802188</v>
+        <v>42.53724282532548</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
@@ -4807,19 +4807,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4868,13 +4868,13 @@
         <v>117.6594827452864</v>
       </c>
       <c r="E9" t="n">
-        <v>75.92715643465272</v>
+        <v>117.6594827452864</v>
       </c>
       <c r="F9" t="n">
-        <v>34.19483012401903</v>
+        <v>86.08590667097184</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802188</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
@@ -4950,13 +4950,13 @@
         <v>61.2725530619707</v>
       </c>
       <c r="F10" t="n">
-        <v>19.54022675133702</v>
+        <v>61.2725530619707</v>
       </c>
       <c r="G10" t="n">
-        <v>19.54022675133702</v>
+        <v>61.2725530619707</v>
       </c>
       <c r="H10" t="n">
-        <v>19.54022675133702</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1955.47212285877</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C11" t="n">
-        <v>1517.329650042193</v>
+        <v>1410.876791836584</v>
       </c>
       <c r="D11" t="n">
-        <v>1081.419865216638</v>
+        <v>974.9670070110283</v>
       </c>
       <c r="E11" t="n">
-        <v>647.6451203749327</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>647.6451203749327</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X11" t="n">
-        <v>1955.47212285877</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y11" t="n">
-        <v>1955.47212285877</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,13 +5111,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5126,16 +5126,16 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>743.6816307030845</v>
+        <v>743.6816307030854</v>
       </c>
       <c r="C13" t="n">
-        <v>571.1199191863094</v>
+        <v>571.1199191863103</v>
       </c>
       <c r="D13" t="n">
-        <v>405.2419263878321</v>
+        <v>405.241926387833</v>
       </c>
       <c r="E13" t="n">
-        <v>235.4839226385694</v>
+        <v>405.241926387833</v>
       </c>
       <c r="F13" t="n">
-        <v>58.77686860032557</v>
+        <v>405.241926387833</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,19 +5205,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,7 +5226,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
@@ -5235,16 +5235,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.311674774551</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.919920107963</v>
+        <v>1162.919920107964</v>
       </c>
       <c r="Y13" t="n">
-        <v>935.5002494220716</v>
+        <v>935.5002494220726</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1997.710627381563</v>
+        <v>1276.934931057772</v>
       </c>
       <c r="C14" t="n">
-        <v>1997.710627381563</v>
+        <v>1276.934931057772</v>
       </c>
       <c r="D14" t="n">
-        <v>1561.800842556008</v>
+        <v>1276.934931057772</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.298223916359</v>
+        <v>843.1601862160669</v>
       </c>
       <c r="F14" t="n">
         <v>716.4307943255671</v>
@@ -5275,16 +5275,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W14" t="n">
-        <v>1997.710627381563</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="X14" t="n">
-        <v>1997.710627381563</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="Y14" t="n">
-        <v>1997.710627381563</v>
+        <v>1703.23450154268</v>
       </c>
     </row>
     <row r="15">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C16" t="n">
-        <v>299.093514772602</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D16" t="n">
-        <v>133.2155219741246</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
         <v>47.20655154895474</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>588.0160255186817</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>718.6204178572111</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1288.378132818745</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2222.144028566953</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1943.757396615696</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1656.801888486126</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1384.775484072418</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1139.38372940583</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>911.9640587199385</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>127.3557636557654</v>
+        <v>1154.573267142144</v>
       </c>
       <c r="C17" t="n">
-        <v>127.3557636557654</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>127.3557636557654</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>127.3557636557654</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>127.3557636557654</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>127.3557636557654</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1785.939375850676</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W17" t="n">
-        <v>1381.083921261709</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X17" t="n">
-        <v>961.9414578410198</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y17" t="n">
-        <v>553.6553341406732</v>
+        <v>1580.872837627051</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C19" t="n">
-        <v>471.655226289377</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D19" t="n">
-        <v>471.655226289377</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>471.655226289377</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>294.9481722511332</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
-        <v>130.2069918636516</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895474</v>
@@ -5676,22 +5676,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>358.0754347909399</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092378</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1293.318111528908</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="C20" t="n">
-        <v>1293.318111528908</v>
+        <v>1410.876791836584</v>
       </c>
       <c r="D20" t="n">
-        <v>1150.205539167272</v>
+        <v>974.9670070110283</v>
       </c>
       <c r="E20" t="n">
-        <v>716.4307943255671</v>
+        <v>541.1922621693234</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G20" t="n">
         <v>316.9281030050443</v>
@@ -5749,28 +5749,28 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5782,22 +5782,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.790516184048</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1698.173566117875</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W20" t="n">
-        <v>1293.318111528908</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X20" t="n">
-        <v>1293.318111528908</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y20" t="n">
-        <v>1293.318111528908</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="21">
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895474</v>
@@ -5916,19 +5916,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>326.783117436994</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9641928553089</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N22" t="n">
-        <v>1480.721907816843</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O22" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>2252.808511274623</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X22" t="n">
-        <v>1136.285270360843</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y22" t="n">
-        <v>1136.285270360843</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F23" t="n">
         <v>47.20655154895474</v>
@@ -5986,16 +5986,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>1782.900983623584</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W23" t="n">
-        <v>1782.900983623584</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="X23" t="n">
-        <v>1782.900983623584</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="Y23" t="n">
-        <v>1782.900983623584</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
         <v>1488.088567599445</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>896.8524940391952</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C25" t="n">
-        <v>724.2907825224202</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D25" t="n">
-        <v>558.4127897239429</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E25" t="n">
-        <v>388.6547859746801</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F25" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895474</v>
@@ -6150,22 +6150,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>320.0013704257352</v>
       </c>
       <c r="L25" t="n">
-        <v>744.992999204955</v>
+        <v>862.0820538119942</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>992.6864461505237</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6180,19 +6180,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U25" t="n">
-        <v>2120.464450653939</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V25" t="n">
-        <v>1833.50894252437</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.482538110662</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X25" t="n">
-        <v>1316.090783444074</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y25" t="n">
-        <v>1088.671112758182</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1470.343171017674</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C26" t="n">
-        <v>1032.200698201098</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D26" t="n">
-        <v>596.290913375542</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>162.5161685338372</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6247,7 +6247,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U26" t="n">
-        <v>1889.485634438363</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V26" t="n">
-        <v>1889.485634438363</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W26" t="n">
-        <v>1889.485634438363</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X26" t="n">
-        <v>1470.343171017674</v>
+        <v>2181.576892983283</v>
       </c>
       <c r="Y26" t="n">
-        <v>1470.343171017674</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I27" t="n">
         <v>81.42328772043086</v>
@@ -6308,19 +6308,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
         <v>1488.088567599445</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.4042596134699</v>
+        <v>905.7210691049575</v>
       </c>
       <c r="C28" t="n">
-        <v>382.8425480966948</v>
+        <v>733.1593575881824</v>
       </c>
       <c r="D28" t="n">
-        <v>216.9645552982175</v>
+        <v>567.2813647897051</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895474</v>
+        <v>397.5233610404424</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>220.8163070021986</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M28" t="n">
         <v>1066.127311827553</v>
@@ -6399,13 +6399,13 @@
         <v>1635.885026789087</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447737</v>
@@ -6414,22 +6414,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2057.402848179471</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U28" t="n">
-        <v>1779.016216228214</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V28" t="n">
-        <v>1492.060708098645</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.034303684936</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X28" t="n">
-        <v>974.6425490183487</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y28" t="n">
-        <v>747.222878332457</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.2588091910869</v>
+        <v>339.1270151866534</v>
       </c>
       <c r="C29" t="n">
-        <v>483.1163363745102</v>
+        <v>339.1270151866534</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895474</v>
+        <v>339.1270151866534</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>339.1270151866534</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6484,7 +6484,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
@@ -6493,22 +6493,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2160.699957965308</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U29" t="n">
-        <v>2160.699957965308</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V29" t="n">
-        <v>2160.699957965308</v>
+        <v>1997.710627381564</v>
       </c>
       <c r="W29" t="n">
-        <v>1755.844503376341</v>
+        <v>1592.855172792597</v>
       </c>
       <c r="X29" t="n">
-        <v>1755.844503376341</v>
+        <v>1173.712709371908</v>
       </c>
       <c r="Y29" t="n">
-        <v>1347.558379675995</v>
+        <v>765.4265856715612</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
@@ -6545,19 +6545,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1030.637138832655</v>
+        <v>858.3289888817358</v>
       </c>
       <c r="C31" t="n">
-        <v>858.0754273158799</v>
+        <v>685.7672773649607</v>
       </c>
       <c r="D31" t="n">
-        <v>692.1974345174026</v>
+        <v>519.8892845664834</v>
       </c>
       <c r="E31" t="n">
-        <v>522.4394307681398</v>
+        <v>350.1312808172207</v>
       </c>
       <c r="F31" t="n">
-        <v>345.732376729896</v>
+        <v>173.4242267789769</v>
       </c>
       <c r="G31" t="n">
-        <v>180.9911963424144</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H31" t="n">
-        <v>48.64713572173034</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L31" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M31" t="n">
-        <v>910.9641928553089</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N31" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O31" t="n">
-        <v>2018.157038390386</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P31" t="n">
-        <v>2118.926094568069</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U31" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V31" t="n">
-        <v>1695.267182904121</v>
+        <v>1794.985437366911</v>
       </c>
       <c r="W31" t="n">
-        <v>1695.267182904121</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X31" t="n">
-        <v>1449.875428237534</v>
+        <v>1277.567278286615</v>
       </c>
       <c r="Y31" t="n">
-        <v>1222.455757551642</v>
+        <v>1050.147607600723</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1746.493890118551</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="C32" t="n">
-        <v>1308.351417301975</v>
+        <v>1519.101784779784</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.351417301975</v>
+        <v>1083.191999954228</v>
       </c>
       <c r="E32" t="n">
-        <v>874.5766724602698</v>
+        <v>649.4172551125234</v>
       </c>
       <c r="F32" t="n">
         <v>446.7092428694776</v>
@@ -6697,16 +6697,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2154.780013818898</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2154.780013818898</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2154.780013818898</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W32" t="n">
-        <v>2154.780013818898</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X32" t="n">
-        <v>2154.780013818898</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="Y32" t="n">
-        <v>1746.493890118551</v>
+        <v>1957.244257596361</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P33" t="n">
         <v>1488.088567599445</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>743.6816307030854</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895474</v>
@@ -6861,16 +6861,16 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L34" t="n">
-        <v>744.992999204955</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M34" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N34" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O34" t="n">
         <v>2173.32015736263</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T34" t="n">
-        <v>2121.479004437153</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1843.092372485896</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1556.136864356327</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.110459942618</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.110459942618</v>
+        <v>1162.919920107964</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>935.5002494220726</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>499.1987871288563</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>499.1987871288563</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>499.1987871288563</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>499.1987871288563</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>499.1987871288563</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G35" t="n">
-        <v>99.6960958083335</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6958,7 +6958,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
@@ -6970,19 +6970,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.256885969251</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>1738.639935903077</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>1333.784481314111</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X35" t="n">
-        <v>1333.784481314111</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y35" t="n">
-        <v>925.4983576137641</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P36" t="n">
         <v>1488.088567599445</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>894.468396736399</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C37" t="n">
-        <v>721.9066852196239</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D37" t="n">
         <v>690.7568503446269</v>
@@ -7089,58 +7089,58 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434847</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P37" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U37" t="n">
-        <v>2118.080353351143</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V37" t="n">
-        <v>1831.124845221574</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="W37" t="n">
-        <v>1559.098440807865</v>
+        <v>1665.488002587006</v>
       </c>
       <c r="X37" t="n">
-        <v>1313.706686141278</v>
+        <v>1420.096247920419</v>
       </c>
       <c r="Y37" t="n">
-        <v>1086.287015455386</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>914.6420178934214</v>
+        <v>2060.790516184049</v>
       </c>
       <c r="C38" t="n">
-        <v>914.6420178934214</v>
+        <v>1622.648043367472</v>
       </c>
       <c r="D38" t="n">
-        <v>914.6420178934214</v>
+        <v>1186.738258541916</v>
       </c>
       <c r="E38" t="n">
-        <v>914.6420178934214</v>
+        <v>752.9635137002115</v>
       </c>
       <c r="F38" t="n">
-        <v>486.7745883026292</v>
+        <v>325.0960841094192</v>
       </c>
       <c r="G38" t="n">
-        <v>87.27189698210634</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7195,31 +7195,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184049</v>
       </c>
       <c r="V38" t="n">
-        <v>1738.639935903077</v>
+        <v>2060.790516184049</v>
       </c>
       <c r="W38" t="n">
-        <v>1333.784481314111</v>
+        <v>2060.790516184049</v>
       </c>
       <c r="X38" t="n">
-        <v>914.6420178934214</v>
+        <v>2060.790516184049</v>
       </c>
       <c r="Y38" t="n">
-        <v>914.6420178934214</v>
+        <v>2060.790516184049</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7256,19 +7256,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>795.2066002154656</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C40" t="n">
-        <v>622.6448886986906</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D40" t="n">
-        <v>456.7668959002132</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E40" t="n">
-        <v>287.0088921509505</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L40" t="n">
-        <v>901.6154856350191</v>
+        <v>688.1212571728196</v>
       </c>
       <c r="M40" t="n">
-        <v>1485.796561053334</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>1842.060047552669</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1959.825928900431</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V40" t="n">
-        <v>1731.863048700641</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W40" t="n">
-        <v>1459.836644286932</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X40" t="n">
-        <v>1214.444889620345</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y40" t="n">
-        <v>987.0252189344528</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J41" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,31 +7432,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V41" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W41" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X41" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="42">
@@ -7469,43 +7469,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>691.8936627556226</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C43" t="n">
-        <v>691.8936627556226</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D43" t="n">
-        <v>526.0156699571453</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E43" t="n">
-        <v>356.2576662078826</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>289.4920009833859</v>
+        <v>289.492000983386</v>
       </c>
       <c r="L43" t="n">
         <v>413.3628026016839</v>
       </c>
       <c r="M43" t="n">
-        <v>997.5438780199987</v>
+        <v>718.6204178572116</v>
       </c>
       <c r="N43" t="n">
-        <v>1567.301592981533</v>
+        <v>1288.378132818746</v>
       </c>
       <c r="O43" t="n">
-        <v>2104.736723555076</v>
+        <v>1825.813263392289</v>
       </c>
       <c r="P43" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R43" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2193.892251321624</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1915.505619370367</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V43" t="n">
-        <v>1628.550111240797</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W43" t="n">
-        <v>1356.523706827089</v>
+        <v>1624.577824674414</v>
       </c>
       <c r="X43" t="n">
-        <v>1111.131952160501</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.7122814746097</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>662.4043965773309</v>
+        <v>1081.546859998021</v>
       </c>
       <c r="C44" t="n">
-        <v>224.2619237607542</v>
+        <v>1081.546859998021</v>
       </c>
       <c r="D44" t="n">
-        <v>224.2619237607542</v>
+        <v>1081.546859998021</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895474</v>
+        <v>1081.546859998021</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7669,31 +7669,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V44" t="n">
         <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.54685999802</v>
+        <v>1081.546859998021</v>
       </c>
       <c r="X44" t="n">
-        <v>662.4043965773309</v>
+        <v>1081.546859998021</v>
       </c>
       <c r="Y44" t="n">
-        <v>662.4043965773309</v>
+        <v>1081.546859998021</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043086</v>
@@ -7730,19 +7730,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>761.6726680376725</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268367</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898317</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.751453776091</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.854757918509</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O46" t="n">
-        <v>1815.289888492053</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P46" t="n">
-        <v>2263.565838640078</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2233.892076286559</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1991.644852189965</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1713.258220238708</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1426.302712109139</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1426.302712109139</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1180.910957442551</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>953.4912867566595</v>
       </c>
     </row>
   </sheetData>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>263.871624324937</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>69.27619576520596</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>118.2717723303425</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>192.4544649334022</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042871</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10515,13 +10515,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>158.2045317475397</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>192.4544649334027</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,7 +10761,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>303.1049632594844</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>45.75904403825052</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>176.4173968858568</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>69.27619576520601</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>10.62967161639972</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22549,16 +22549,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>14.02082255136139</v>
+        <v>10.43324883758686</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726475044</v>
+        <v>11.00356139717409</v>
       </c>
       <c r="E2" t="n">
-        <v>6.109198142462894</v>
+        <v>6.109198142463693</v>
       </c>
       <c r="F2" t="n">
-        <v>0.260956044059462</v>
+        <v>0.2609560440602614</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22609,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>173.4861468346813</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>68.0978172111281</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>151.6391547027496</v>
+        <v>2.123701205708954</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>16.10940494003574</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>298.1266573232896</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>103.0230384636511</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>187.6766159557861</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>87.55581491469763</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>48.85018410292734</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>289.8692403392805</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>201.5672377222481</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>146.3469376859572</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>169.1588901203621</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,10 +24265,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>253.47197625888</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>270.7518270944238</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>38.13827010588478</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>169.1588901203625</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>309.4322344798507</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24508,10 +24508,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>237.9878611666725</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>53.68444438300982</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.91154299085194</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>134.5874962935627</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T29" t="n">
-        <v>12.0221957279746</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>100.6026038039993</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I31" t="n">
-        <v>61.03815536706659</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>222.9078231742689</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.161451023028031</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>107.7197912193646</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.364664575149723</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>215.0596871247437</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>265.3352856806292</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>133.3808763442455</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>28.05521018289591</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>120.3970271724577</v>
       </c>
       <c r="H38" t="n">
-        <v>227.3596439627086</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25566,10 +25566,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>177.3335870760204</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>18.02677463308592</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>249.4367335470099</v>
+        <v>43.81843724330088</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>75.05377899077548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>207.8068631386902</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>254.1521789036063</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>62.12385027915542</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779059</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>17.81112696124086</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>583649.9488017735</v>
+        <v>583649.9488017733</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>368337.503141123</v>
+        <v>368337.5031411232</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>368337.5031411231</v>
+        <v>368337.5031411232</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>368337.5031411231</v>
+        <v>368337.5031411232</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>368337.5031411231</v>
+        <v>368337.5031411232</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>368337.5031411231</v>
+        <v>368337.5031411232</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>368337.5031411231</v>
+        <v>368337.5031411232</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>368337.5031411231</v>
+        <v>368337.5031411232</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344884.0606555933</v>
+        <v>344884.0606555929</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287654</v>
@@ -26322,16 +26322,16 @@
         <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="F2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910627</v>
       </c>
       <c r="G2" t="n">
         <v>204486.8426910626</v>
       </c>
       <c r="H2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910627</v>
       </c>
       <c r="I2" t="n">
         <v>204486.8426910626</v>
@@ -26340,10 +26340,10 @@
         <v>204486.8426910626</v>
       </c>
       <c r="K2" t="n">
+        <v>204486.8426910626</v>
+      </c>
+      <c r="L2" t="n">
         <v>204486.8426910625</v>
-      </c>
-      <c r="L2" t="n">
-        <v>204486.8426910626</v>
       </c>
       <c r="M2" t="n">
         <v>204486.8426910626</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150168954</v>
+        <v>25672.80150168867</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088741</v>
+        <v>18763.31828088823</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.57870718282</v>
+        <v>6103.578707182641</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749727</v>
+        <v>4629.33066674993</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136754.9043831154</v>
+        <v>136754.9043831155</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>22750.61565481864</v>
       </c>
       <c r="F4" t="n">
+        <v>22750.61565481864</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22750.61565481864</v>
+      </c>
+      <c r="H4" t="n">
         <v>22750.61565481863</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22750.61565481863</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22750.61565481864</v>
       </c>
       <c r="I4" t="n">
         <v>22750.61565481863</v>
       </c>
       <c r="J4" t="n">
-        <v>22750.61565481864</v>
+        <v>22750.61565481863</v>
       </c>
       <c r="K4" t="n">
-        <v>22750.61565481864</v>
+        <v>22750.61565481863</v>
       </c>
       <c r="L4" t="n">
         <v>22750.61565481863</v>
       </c>
       <c r="M4" t="n">
+        <v>22750.61565481863</v>
+      </c>
+      <c r="N4" t="n">
         <v>22750.61565481864</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>22750.61565481864</v>
+      </c>
+      <c r="P4" t="n">
         <v>22750.61565481863</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22750.61565481863</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22750.61565481864</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413288</v>
+        <v>35449.86995413281</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26478,7 +26478,7 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
@@ -26493,25 +26493,25 @@
         <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12761.04394937294</v>
+        <v>-12774.93509273071</v>
       </c>
       <c r="C6" t="n">
-        <v>-1962.838616906352</v>
+        <v>-1962.838616907226</v>
       </c>
       <c r="D6" t="n">
-        <v>16800.47966398103</v>
+        <v>16800.47966398097</v>
       </c>
       <c r="E6" t="n">
-        <v>-376800.3637293756</v>
+        <v>-377354.2441725975</v>
       </c>
       <c r="F6" t="n">
-        <v>135685.1458266062</v>
+        <v>135131.2653833842</v>
       </c>
       <c r="G6" t="n">
-        <v>135685.1458266061</v>
+        <v>135131.2653833842</v>
       </c>
       <c r="H6" t="n">
-        <v>135685.1458266061</v>
+        <v>135131.2653833842</v>
       </c>
       <c r="I6" t="n">
-        <v>135685.1458266061</v>
+        <v>135131.2653833842</v>
       </c>
       <c r="J6" t="n">
-        <v>129581.5671194234</v>
+        <v>129027.6866762016</v>
       </c>
       <c r="K6" t="n">
-        <v>131055.8151598564</v>
+        <v>130501.9347166343</v>
       </c>
       <c r="L6" t="n">
-        <v>135685.1458266061</v>
+        <v>135131.2653833841</v>
       </c>
       <c r="M6" t="n">
-        <v>-1069.758556509274</v>
+        <v>-1623.638999731296</v>
       </c>
       <c r="N6" t="n">
-        <v>135685.1458266061</v>
+        <v>135131.2653833842</v>
       </c>
       <c r="O6" t="n">
-        <v>135685.1458266061</v>
+        <v>135131.2653833842</v>
       </c>
       <c r="P6" t="n">
-        <v>135685.1458266061</v>
+        <v>135131.2653833842</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443679</v>
+        <v>18.52934677443616</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26752,34 +26752,34 @@
         <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
+        <v>466.7019280932212</v>
+      </c>
+      <c r="H3" t="n">
+        <v>466.7019280932212</v>
+      </c>
+      <c r="I3" t="n">
         <v>466.7019280932213</v>
       </c>
-      <c r="H3" t="n">
-        <v>466.7019280932211</v>
-      </c>
-      <c r="I3" t="n">
-        <v>466.7019280932212</v>
-      </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082486</v>
+        <v>23.32779925082406</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752736</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
@@ -26813,25 +26813,25 @@
         <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443679</v>
+        <v>18.52934677443616</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613481</v>
+        <v>14.22375528613544</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082486</v>
+        <v>23.32779925082406</v>
       </c>
       <c r="C4" t="n">
-        <v>17.9872037967025</v>
+        <v>17.98720379670328</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082486</v>
+        <v>23.32779925082417</v>
       </c>
       <c r="K4" t="n">
-        <v>17.9872037967025</v>
+        <v>17.98720379670328</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144071</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082486</v>
+        <v>23.32779925082406</v>
       </c>
       <c r="K4" t="n">
-        <v>17.9872037967025</v>
+        <v>17.98720379670328</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11791793379039</v>
+        <v>81.11791793379045</v>
       </c>
       <c r="T2" t="n">
         <v>217.5404755973798</v>
@@ -27469,13 +27469,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>59.22220074917594</v>
       </c>
       <c r="G3" t="n">
-        <v>84.49138326039709</v>
+        <v>67.10049693821627</v>
       </c>
       <c r="H3" t="n">
-        <v>23.54248838130305</v>
+        <v>17.60557545266041</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>38.75278408008967</v>
+        <v>62.08058333091455</v>
       </c>
       <c r="T3" t="n">
-        <v>105.3884120414483</v>
+        <v>128.7162112922732</v>
       </c>
       <c r="U3" t="n">
         <v>174.5705594526576</v>
@@ -27548,16 +27548,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>162.1754139219996</v>
       </c>
       <c r="G4" t="n">
-        <v>154.7639311292055</v>
+        <v>163.90194864828</v>
       </c>
       <c r="H4" t="n">
-        <v>114.878276247747</v>
+        <v>138.2060754985719</v>
       </c>
       <c r="I4" t="n">
-        <v>86.7685123702872</v>
+        <v>86.76851237028724</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.70124719403652</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.0666475106129</v>
@@ -27709,7 +27709,7 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.14578572036748</v>
+        <v>53.20294845432343</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T6" t="n">
-        <v>128.5928940176698</v>
+        <v>87.27789097014248</v>
       </c>
       <c r="U6" t="n">
         <v>174.5685466570983</v>
@@ -27760,7 +27760,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>122.0609210899374</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
         <v>125.2209214285714</v>
@@ -27782,7 +27782,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>129.2207015560621</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>186.3057518233248</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>51.29215968642859</v>
       </c>
       <c r="G9" t="n">
-        <v>53.88005518648017</v>
+        <v>43.14578572036749</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>133.624980450334</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>137.9780290613614</v>
+        <v>121.9053528189019</v>
       </c>
       <c r="I10" t="n">
-        <v>69.92448887395011</v>
+        <v>44.68216206888225</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914282</v>
+        <v>0.0744898362791403</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937716</v>
+        <v>0.7628690357937458</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151656</v>
+        <v>2.871769413151559</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896904</v>
+        <v>6.322231741896689</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593022</v>
+        <v>9.475386511592701</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862084</v>
+        <v>11.75505483862044</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455005</v>
+        <v>13.0797634645496</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187816</v>
+        <v>13.29140771187771</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237744</v>
+        <v>12.55069940237701</v>
       </c>
       <c r="P2" t="n">
-        <v>10.7117315692361</v>
+        <v>10.71173156923573</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489291</v>
+        <v>8.044064307489018</v>
       </c>
       <c r="R2" t="n">
-        <v>4.67917217816971</v>
+        <v>4.679172178169551</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144210969</v>
+        <v>1.697437144210911</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119479</v>
+        <v>0.3260792583119368</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331425</v>
+        <v>0.005959186902331223</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086405</v>
+        <v>0.0398555760808627</v>
       </c>
       <c r="H3" t="n">
-        <v>0.384920958465187</v>
+        <v>0.3849209584651739</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257819</v>
+        <v>1.372220492257773</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850406</v>
+        <v>3.765477913850278</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268297</v>
+        <v>6.435801511268078</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136731</v>
+        <v>8.653729359136438</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206805</v>
+        <v>10.09849399206771</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903139</v>
+        <v>10.36577107903104</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555403</v>
+        <v>9.48265541955508</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862539</v>
+        <v>7.610666979862281</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690646</v>
+        <v>5.087529325690474</v>
       </c>
       <c r="R3" t="n">
-        <v>2.47454182017856</v>
+        <v>2.474541820178476</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7402998451862242</v>
+        <v>0.7402998451861991</v>
       </c>
       <c r="T3" t="n">
-        <v>0.160645940431202</v>
+        <v>0.1606459404311965</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741057</v>
+        <v>0.002622077373740968</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03341357615062372</v>
+        <v>0.03341357615062258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573638</v>
+        <v>0.2970770679573538</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784212</v>
+        <v>1.004837362784178</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849097</v>
+        <v>2.362339833849017</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136101</v>
+        <v>3.882050029135969</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248185</v>
+        <v>4.967687494248017</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501861</v>
+        <v>5.237729941501684</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430394995</v>
+        <v>5.113188430394822</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999071</v>
+        <v>4.722857108998911</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526344</v>
+        <v>4.041220155526206</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939956</v>
+        <v>2.797931362939861</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645317</v>
+        <v>1.502395887645266</v>
       </c>
       <c r="S4" t="n">
-        <v>0.582307504370415</v>
+        <v>0.5823075043703952</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981195</v>
+        <v>0.1427670980981146</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124932</v>
+        <v>0.00182255869912487</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -32229,13 +32229,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -32244,10 +32244,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646685</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,7 +32563,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
@@ -32575,13 +32575,13 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32703,13 +32703,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -32718,10 +32718,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I24" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742727</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917233</v>
@@ -32812,16 +32812,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,19 +32888,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,13 +32940,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -32955,10 +32955,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I27" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.352550810805</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,19 +33125,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,13 +33177,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -33192,10 +33192,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I30" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646685</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917233</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,19 +33362,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,13 +33414,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -33429,10 +33429,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I33" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.352550810805</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917233</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,19 +33599,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,13 +33651,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699085</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -33666,10 +33666,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I36" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917233</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,13 +33888,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -33903,10 +33903,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415856</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917233</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,19 +34073,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,13 +34125,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -34140,10 +34140,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917233</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,19 +34310,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,13 +34362,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -34377,10 +34377,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646685</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917233</v>
@@ -34471,16 +34471,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T45" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,19 +34547,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020259</v>
+        <v>2.459147934020161</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741896907</v>
+        <v>6.322231741896689</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593022</v>
+        <v>9.475386511592701</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862084</v>
+        <v>11.75505483862045</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455004</v>
+        <v>13.0797634645496</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187816</v>
+        <v>13.29140771187771</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237743</v>
+        <v>12.55069940237701</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923609</v>
+        <v>10.71173156923574</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489293</v>
+        <v>8.044064307489023</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169708</v>
+        <v>4.679172178169537</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257819</v>
+        <v>1.372220492257773</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850406</v>
+        <v>3.765477913850278</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268296</v>
+        <v>6.435801511268078</v>
       </c>
       <c r="L3" t="n">
-        <v>8.653729359136733</v>
+        <v>8.653729359136436</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206805</v>
+        <v>10.09849399206771</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903139</v>
+        <v>10.36577107903104</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555407</v>
+        <v>9.48265541955508</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862536</v>
+        <v>7.61066697986228</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690646</v>
+        <v>5.087529325690468</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178558</v>
+        <v>2.474541820178473</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849096</v>
+        <v>2.362339833849017</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136101</v>
+        <v>3.88205002913597</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248185</v>
+        <v>4.967687494248018</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941501859</v>
+        <v>5.237729941501684</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430394995</v>
+        <v>5.113188430394821</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999069</v>
+        <v>4.722857108998909</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526347</v>
+        <v>4.041220155526204</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362939956</v>
+        <v>2.797931362939863</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>4.663615574899505</v>
       </c>
       <c r="J5" t="n">
-        <v>11.17539134075754</v>
+        <v>11.17539134075756</v>
       </c>
       <c r="K5" t="n">
         <v>16.74901469844195</v>
       </c>
       <c r="L5" t="n">
-        <v>20.77863378260766</v>
+        <v>20.77863378260764</v>
       </c>
       <c r="M5" t="n">
         <v>23.12023369725966</v>
@@ -34953,10 +34953,10 @@
         <v>22.18504210978143</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160912</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q5" t="n">
-        <v>14.21896100560224</v>
+        <v>14.21896100560221</v>
       </c>
       <c r="R5" t="n">
         <v>8.271063506783435</v>
@@ -35096,7 +35096,7 @@
         <v>4.175752044673201</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739426</v>
+        <v>6.862043349739428</v>
       </c>
       <c r="L7" t="n">
         <v>8.781052968829309</v>
@@ -35175,7 +35175,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
         <v>20.77863378260766</v>
@@ -35196,7 +35196,7 @@
         <v>14.21896100560221</v>
       </c>
       <c r="R8" t="n">
-        <v>8.271063506783463</v>
+        <v>8.271063506783435</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35573,16 +35573,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O13" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,13 +35655,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>388.9936461616016</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062834</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646685</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36044,28 +36044,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>167.0540751263759</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766673</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320033</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>227.2024143463636</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36436,25 +36436,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742727</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>216.0496516915125</v>
       </c>
       <c r="L25" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
-        <v>324.3780935581794</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.352550810805</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409517</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
@@ -36776,7 +36776,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646685</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320033</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>227.2024143463636</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37147,25 +37147,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.352550810805</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L34" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619342</v>
+        <v>324.3780935581793</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>277.1599674523495</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
@@ -37250,7 +37250,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785945</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L37" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>324.3780935581799</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,19 +37539,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415856</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572665</v>
       </c>
       <c r="L40" t="n">
-        <v>428.226985096149</v>
+        <v>125.1220218366647</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N40" t="n">
         <v>575.5128433954892</v>
@@ -37718,13 +37718,13 @@
         <v>118.95543570481</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>147.545969470254</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,22 +37776,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816035</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -37800,7 +37800,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37940,28 +37940,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>308.341025510634</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>171.0631211972095</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646685</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.10166275847632</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
